--- a/experiments/ana-flavia-NCxHSD-NC-trim/sheets/absolute-all_frequencies.xlsx
+++ b/experiments/ana-flavia-NCxHSD-NC-trim/sheets/absolute-all_frequencies.xlsx
@@ -31,40 +31,40 @@
     <t>NC</t>
   </si>
   <si>
-    <t>210421121673</t>
-  </si>
-  <si>
-    <t>210421121674</t>
-  </si>
-  <si>
-    <t>210421121675</t>
-  </si>
-  <si>
-    <t>210421121676</t>
-  </si>
-  <si>
-    <t>210421121688</t>
-  </si>
-  <si>
-    <t>210421121689</t>
-  </si>
-  <si>
-    <t>210421121690</t>
-  </si>
-  <si>
-    <t>210421121698</t>
-  </si>
-  <si>
-    <t>210421121699</t>
-  </si>
-  <si>
-    <t>210421121700</t>
-  </si>
-  <si>
-    <t>210421121701</t>
-  </si>
-  <si>
-    <t>210421121702</t>
+    <t>S210421121673</t>
+  </si>
+  <si>
+    <t>S210421121674</t>
+  </si>
+  <si>
+    <t>S210421121675</t>
+  </si>
+  <si>
+    <t>S210421121676</t>
+  </si>
+  <si>
+    <t>S210421121688</t>
+  </si>
+  <si>
+    <t>S210421121689</t>
+  </si>
+  <si>
+    <t>S210421121690</t>
+  </si>
+  <si>
+    <t>S210421121698</t>
+  </si>
+  <si>
+    <t>S210421121699</t>
+  </si>
+  <si>
+    <t>S210421121700</t>
+  </si>
+  <si>
+    <t>S210421121701</t>
+  </si>
+  <si>
+    <t>S210421121702</t>
   </si>
   <si>
     <t>Bacteria</t>
@@ -502,16 +502,16 @@
     <t>[Eubacterium]_siraeum_group</t>
   </si>
   <si>
+    <t>Christensenellaceae_R-7_group</t>
+  </si>
+  <si>
+    <t>Incertae_Sedis</t>
+  </si>
+  <si>
+    <t>Burkholderia-Caballeronia-Paraburkholderia</t>
+  </si>
+  <si>
     <t>Blautia</t>
-  </si>
-  <si>
-    <t>Christensenellaceae_R-7_group</t>
-  </si>
-  <si>
-    <t>Incertae_Sedis</t>
-  </si>
-  <si>
-    <t>Burkholderia-Caballeronia-Paraburkholderia</t>
   </si>
   <si>
     <t>Colidextribacter</t>
@@ -1308,31 +1308,31 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>1721367</v>
+        <v>1768153</v>
       </c>
       <c r="C2">
-        <v>412754</v>
+        <v>412740</v>
       </c>
       <c r="D2">
-        <v>1308613</v>
+        <v>1355413</v>
       </c>
       <c r="E2">
-        <v>256338</v>
+        <v>259343</v>
       </c>
       <c r="F2">
-        <v>359389</v>
+        <v>398060</v>
       </c>
       <c r="G2">
-        <v>231694</v>
+        <v>232354</v>
       </c>
       <c r="H2">
-        <v>461192</v>
+        <v>465656</v>
       </c>
       <c r="I2">
-        <v>97767</v>
+        <v>97740</v>
       </c>
       <c r="J2">
-        <v>131909</v>
+        <v>131912</v>
       </c>
       <c r="K2">
         <v>94718</v>
@@ -1341,13 +1341,13 @@
         <v>9629</v>
       </c>
       <c r="M2">
-        <v>13427</v>
+        <v>13432</v>
       </c>
       <c r="N2">
         <v>12355</v>
       </c>
       <c r="O2">
-        <v>49039</v>
+        <v>49044</v>
       </c>
       <c r="P2">
         <v>3910</v>
@@ -1418,25 +1418,25 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <v>1072810</v>
+        <v>1119659</v>
       </c>
       <c r="C2">
         <v>53748</v>
       </c>
       <c r="D2">
-        <v>1019062</v>
+        <v>1065911</v>
       </c>
       <c r="E2">
-        <v>167436</v>
+        <v>170231</v>
       </c>
       <c r="F2">
-        <v>268870</v>
+        <v>307967</v>
       </c>
       <c r="G2">
-        <v>181726</v>
+        <v>182221</v>
       </c>
       <c r="H2">
-        <v>401030</v>
+        <v>405492</v>
       </c>
       <c r="I2">
         <v>38267</v>
@@ -1468,28 +1468,28 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>540215</v>
+        <v>540137</v>
       </c>
       <c r="C3">
-        <v>328777</v>
+        <v>328750</v>
       </c>
       <c r="D3">
-        <v>211438</v>
+        <v>211387</v>
       </c>
       <c r="E3">
-        <v>80074</v>
+        <v>80284</v>
       </c>
       <c r="F3">
-        <v>72565</v>
+        <v>72139</v>
       </c>
       <c r="G3">
-        <v>11784</v>
+        <v>11949</v>
       </c>
       <c r="H3">
         <v>47015</v>
       </c>
       <c r="I3">
-        <v>46852</v>
+        <v>46825</v>
       </c>
       <c r="J3">
         <v>122696</v>
@@ -1568,13 +1568,13 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>35598</v>
+        <v>35613</v>
       </c>
       <c r="C5">
-        <v>7314</v>
+        <v>7327</v>
       </c>
       <c r="D5">
-        <v>28284</v>
+        <v>28286</v>
       </c>
       <c r="E5">
         <v>885</v>
@@ -1586,13 +1586,13 @@
         <v>2812</v>
       </c>
       <c r="H5">
-        <v>8729</v>
+        <v>8731</v>
       </c>
       <c r="I5">
         <v>654</v>
       </c>
       <c r="J5">
-        <v>1556</v>
+        <v>1559</v>
       </c>
       <c r="K5">
         <v>1332</v>
@@ -1601,13 +1601,13 @@
         <v>220</v>
       </c>
       <c r="M5">
-        <v>1743</v>
+        <v>1748</v>
       </c>
       <c r="N5">
         <v>445</v>
       </c>
       <c r="O5">
-        <v>1241</v>
+        <v>1246</v>
       </c>
       <c r="P5">
         <v>123</v>
@@ -2028,25 +2028,25 @@
         <v>27</v>
       </c>
       <c r="B2">
-        <v>1072810</v>
+        <v>1119659</v>
       </c>
       <c r="C2">
         <v>53748</v>
       </c>
       <c r="D2">
-        <v>1019062</v>
+        <v>1065911</v>
       </c>
       <c r="E2">
-        <v>167436</v>
+        <v>170231</v>
       </c>
       <c r="F2">
-        <v>268870</v>
+        <v>307967</v>
       </c>
       <c r="G2">
-        <v>181726</v>
+        <v>182221</v>
       </c>
       <c r="H2">
-        <v>401030</v>
+        <v>405492</v>
       </c>
       <c r="I2">
         <v>38267</v>
@@ -2078,22 +2078,22 @@
         <v>28</v>
       </c>
       <c r="B3">
-        <v>456181</v>
+        <v>456130</v>
       </c>
       <c r="C3">
         <v>288654</v>
       </c>
       <c r="D3">
-        <v>167527</v>
+        <v>167476</v>
       </c>
       <c r="E3">
-        <v>76816</v>
+        <v>77026</v>
       </c>
       <c r="F3">
-        <v>49200</v>
+        <v>48774</v>
       </c>
       <c r="G3">
-        <v>8770</v>
+        <v>8935</v>
       </c>
       <c r="H3">
         <v>32741</v>
@@ -2128,10 +2128,10 @@
         <v>29</v>
       </c>
       <c r="B4">
-        <v>84034</v>
+        <v>84007</v>
       </c>
       <c r="C4">
-        <v>40123</v>
+        <v>40096</v>
       </c>
       <c r="D4">
         <v>43911</v>
@@ -2149,7 +2149,7 @@
         <v>14274</v>
       </c>
       <c r="I4">
-        <v>4886</v>
+        <v>4859</v>
       </c>
       <c r="J4">
         <v>14656</v>
@@ -2228,13 +2228,13 @@
         <v>31</v>
       </c>
       <c r="B6">
-        <v>29471</v>
+        <v>29486</v>
       </c>
       <c r="C6">
-        <v>7031</v>
+        <v>7044</v>
       </c>
       <c r="D6">
-        <v>22440</v>
+        <v>22442</v>
       </c>
       <c r="E6">
         <v>885</v>
@@ -2246,13 +2246,13 @@
         <v>2812</v>
       </c>
       <c r="H6">
-        <v>3182</v>
+        <v>3184</v>
       </c>
       <c r="I6">
         <v>648</v>
       </c>
       <c r="J6">
-        <v>1515</v>
+        <v>1518</v>
       </c>
       <c r="K6">
         <v>1302</v>
@@ -2261,13 +2261,13 @@
         <v>211</v>
       </c>
       <c r="M6">
-        <v>1648</v>
+        <v>1653</v>
       </c>
       <c r="N6">
         <v>437</v>
       </c>
       <c r="O6">
-        <v>1147</v>
+        <v>1152</v>
       </c>
       <c r="P6">
         <v>123</v>
@@ -2788,25 +2788,25 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>1072749</v>
+        <v>1119598</v>
       </c>
       <c r="C2">
         <v>53687</v>
       </c>
       <c r="D2">
-        <v>1019062</v>
+        <v>1065911</v>
       </c>
       <c r="E2">
-        <v>167436</v>
+        <v>170231</v>
       </c>
       <c r="F2">
-        <v>268870</v>
+        <v>307967</v>
       </c>
       <c r="G2">
-        <v>181726</v>
+        <v>182221</v>
       </c>
       <c r="H2">
-        <v>401030</v>
+        <v>405492</v>
       </c>
       <c r="I2">
         <v>38267</v>
@@ -2938,22 +2938,22 @@
         <v>44</v>
       </c>
       <c r="B5">
-        <v>88488</v>
+        <v>88437</v>
       </c>
       <c r="C5">
         <v>20298</v>
       </c>
       <c r="D5">
-        <v>68190</v>
+        <v>68139</v>
       </c>
       <c r="E5">
-        <v>48927</v>
+        <v>49137</v>
       </c>
       <c r="F5">
-        <v>5851</v>
+        <v>5425</v>
       </c>
       <c r="G5">
-        <v>4967</v>
+        <v>5132</v>
       </c>
       <c r="H5">
         <v>8445</v>
@@ -3238,13 +3238,13 @@
         <v>50</v>
       </c>
       <c r="B11">
-        <v>22502</v>
+        <v>22517</v>
       </c>
       <c r="C11">
-        <v>3078</v>
+        <v>3091</v>
       </c>
       <c r="D11">
-        <v>19424</v>
+        <v>19426</v>
       </c>
       <c r="E11">
         <v>188</v>
@@ -3256,13 +3256,13 @@
         <v>1185</v>
       </c>
       <c r="H11">
-        <v>3032</v>
+        <v>3034</v>
       </c>
       <c r="I11">
         <v>264</v>
       </c>
       <c r="J11">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="K11">
         <v>258</v>
@@ -3271,13 +3271,13 @@
         <v>61</v>
       </c>
       <c r="M11">
-        <v>1141</v>
+        <v>1146</v>
       </c>
       <c r="N11">
         <v>64</v>
       </c>
       <c r="O11">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="P11">
         <v>51</v>
@@ -3788,10 +3788,10 @@
         <v>61</v>
       </c>
       <c r="B22">
-        <v>1408</v>
+        <v>1381</v>
       </c>
       <c r="C22">
-        <v>1393</v>
+        <v>1366</v>
       </c>
       <c r="D22">
         <v>15</v>
@@ -3809,7 +3809,7 @@
         <v>15</v>
       </c>
       <c r="I22">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="J22">
         <v>206</v>
@@ -4748,25 +4748,25 @@
         <v>79</v>
       </c>
       <c r="B2">
-        <v>642647</v>
+        <v>642997</v>
       </c>
       <c r="C2">
         <v>51101</v>
       </c>
       <c r="D2">
-        <v>591546</v>
+        <v>591896</v>
       </c>
       <c r="E2">
         <v>107417</v>
       </c>
       <c r="F2">
-        <v>112570</v>
+        <v>112575</v>
       </c>
       <c r="G2">
-        <v>111024</v>
+        <v>111032</v>
       </c>
       <c r="H2">
-        <v>260535</v>
+        <v>260872</v>
       </c>
       <c r="I2">
         <v>36725</v>
@@ -4798,25 +4798,25 @@
         <v>80</v>
       </c>
       <c r="B3">
-        <v>188800</v>
+        <v>235299</v>
       </c>
       <c r="C3">
         <v>757</v>
       </c>
       <c r="D3">
-        <v>188043</v>
+        <v>234542</v>
       </c>
       <c r="E3">
-        <v>26771</v>
+        <v>29566</v>
       </c>
       <c r="F3">
-        <v>115479</v>
+        <v>154571</v>
       </c>
       <c r="G3">
-        <v>15049</v>
+        <v>15536</v>
       </c>
       <c r="H3">
-        <v>30744</v>
+        <v>34869</v>
       </c>
       <c r="I3">
         <v>256</v>
@@ -4998,22 +4998,22 @@
         <v>84</v>
       </c>
       <c r="B7">
-        <v>88406</v>
+        <v>88355</v>
       </c>
       <c r="C7">
         <v>20298</v>
       </c>
       <c r="D7">
-        <v>68108</v>
+        <v>68057</v>
       </c>
       <c r="E7">
-        <v>48927</v>
+        <v>49137</v>
       </c>
       <c r="F7">
-        <v>5831</v>
+        <v>5405</v>
       </c>
       <c r="G7">
-        <v>4967</v>
+        <v>5132</v>
       </c>
       <c r="H7">
         <v>8383</v>
@@ -6148,10 +6148,10 @@
         <v>61</v>
       </c>
       <c r="B30">
-        <v>1408</v>
+        <v>1381</v>
       </c>
       <c r="C30">
-        <v>1393</v>
+        <v>1366</v>
       </c>
       <c r="D30">
         <v>15</v>
@@ -6169,7 +6169,7 @@
         <v>15</v>
       </c>
       <c r="I30">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="J30">
         <v>206</v>
@@ -6198,13 +6198,13 @@
         <v>102</v>
       </c>
       <c r="B31">
-        <v>1320</v>
+        <v>1335</v>
       </c>
       <c r="C31">
-        <v>1320</v>
+        <v>1333</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -6216,13 +6216,13 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K31">
         <v>25</v>
@@ -6231,13 +6231,13 @@
         <v>15</v>
       </c>
       <c r="M31">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="N31">
         <v>44</v>
       </c>
       <c r="O31">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -7858,25 +7858,25 @@
         <v>79</v>
       </c>
       <c r="B2">
-        <v>630641</v>
+        <v>630991</v>
       </c>
       <c r="C2">
         <v>51069</v>
       </c>
       <c r="D2">
-        <v>579572</v>
+        <v>579922</v>
       </c>
       <c r="E2">
         <v>105145</v>
       </c>
       <c r="F2">
-        <v>112442</v>
+        <v>112447</v>
       </c>
       <c r="G2">
-        <v>107668</v>
+        <v>107676</v>
       </c>
       <c r="H2">
-        <v>254317</v>
+        <v>254654</v>
       </c>
       <c r="I2">
         <v>36693</v>
@@ -7908,25 +7908,25 @@
         <v>134</v>
       </c>
       <c r="B3">
-        <v>188800</v>
+        <v>235299</v>
       </c>
       <c r="C3">
         <v>757</v>
       </c>
       <c r="D3">
-        <v>188043</v>
+        <v>234542</v>
       </c>
       <c r="E3">
-        <v>26771</v>
+        <v>29566</v>
       </c>
       <c r="F3">
-        <v>115479</v>
+        <v>154571</v>
       </c>
       <c r="G3">
-        <v>15049</v>
+        <v>15536</v>
       </c>
       <c r="H3">
-        <v>30744</v>
+        <v>34869</v>
       </c>
       <c r="I3">
         <v>256</v>
@@ -8208,31 +8208,31 @@
         <v>53</v>
       </c>
       <c r="B9">
-        <v>50172</v>
+        <v>50629</v>
       </c>
       <c r="C9">
-        <v>9851</v>
+        <v>9864</v>
       </c>
       <c r="D9">
-        <v>40321</v>
+        <v>40765</v>
       </c>
       <c r="E9">
-        <v>27572</v>
+        <v>27849</v>
       </c>
       <c r="F9">
         <v>2080</v>
       </c>
       <c r="G9">
-        <v>2347</v>
+        <v>2512</v>
       </c>
       <c r="H9">
-        <v>8322</v>
+        <v>8324</v>
       </c>
       <c r="I9">
         <v>1826</v>
       </c>
       <c r="J9">
-        <v>2936</v>
+        <v>2939</v>
       </c>
       <c r="K9">
         <v>2648</v>
@@ -8241,13 +8241,13 @@
         <v>142</v>
       </c>
       <c r="M9">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="N9">
         <v>1173</v>
       </c>
       <c r="O9">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="P9">
         <v>305</v>
@@ -8958,16 +8958,16 @@
         <v>151</v>
       </c>
       <c r="B24">
-        <v>4572</v>
+        <v>4505</v>
       </c>
       <c r="C24">
         <v>180</v>
       </c>
       <c r="D24">
-        <v>4392</v>
+        <v>4325</v>
       </c>
       <c r="E24">
-        <v>1309</v>
+        <v>1242</v>
       </c>
       <c r="F24">
         <v>1328</v>
@@ -9558,46 +9558,46 @@
         <v>160</v>
       </c>
       <c r="B36">
-        <v>1973</v>
+        <v>1959</v>
       </c>
       <c r="C36">
-        <v>1084</v>
+        <v>1731</v>
       </c>
       <c r="D36">
-        <v>889</v>
+        <v>228</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>689</v>
+        <v>32</v>
       </c>
       <c r="G36">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="H36">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="I36">
-        <v>25</v>
+        <v>424</v>
       </c>
       <c r="J36">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="K36">
-        <v>60</v>
+        <v>193</v>
       </c>
       <c r="L36">
-        <v>32</v>
+        <v>400</v>
       </c>
       <c r="M36">
-        <v>742</v>
+        <v>403</v>
       </c>
       <c r="N36">
-        <v>216</v>
+        <v>46</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -9608,49 +9608,49 @@
         <v>161</v>
       </c>
       <c r="B37">
-        <v>1959</v>
+        <v>1925</v>
       </c>
       <c r="C37">
-        <v>1731</v>
+        <v>555</v>
       </c>
       <c r="D37">
-        <v>228</v>
+        <v>1370</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1116</v>
       </c>
       <c r="F37">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="H37">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="I37">
-        <v>424</v>
+        <v>60</v>
       </c>
       <c r="J37">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>193</v>
+        <v>35</v>
       </c>
       <c r="L37">
-        <v>400</v>
+        <v>85</v>
       </c>
       <c r="M37">
-        <v>403</v>
+        <v>37</v>
       </c>
       <c r="N37">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="O37">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -9658,49 +9658,49 @@
         <v>162</v>
       </c>
       <c r="B38">
-        <v>1925</v>
+        <v>1660</v>
       </c>
       <c r="C38">
-        <v>555</v>
+        <v>1405</v>
       </c>
       <c r="D38">
-        <v>1370</v>
+        <v>255</v>
       </c>
       <c r="E38">
-        <v>1116</v>
+        <v>28</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G38">
-        <v>165</v>
+        <v>31</v>
       </c>
       <c r="H38">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="I38">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>597</v>
       </c>
       <c r="K38">
-        <v>35</v>
+        <v>216</v>
       </c>
       <c r="L38">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="M38">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="N38">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="O38">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="P38">
-        <v>111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -9708,46 +9708,46 @@
         <v>163</v>
       </c>
       <c r="B39">
-        <v>1660</v>
+        <v>1547</v>
       </c>
       <c r="C39">
-        <v>1405</v>
+        <v>1084</v>
       </c>
       <c r="D39">
-        <v>255</v>
+        <v>463</v>
       </c>
       <c r="E39">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>153</v>
+        <v>263</v>
       </c>
       <c r="G39">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="H39">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="I39">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="J39">
-        <v>597</v>
+        <v>9</v>
       </c>
       <c r="K39">
+        <v>60</v>
+      </c>
+      <c r="L39">
+        <v>32</v>
+      </c>
+      <c r="M39">
+        <v>742</v>
+      </c>
+      <c r="N39">
         <v>216</v>
       </c>
-      <c r="L39">
-        <v>46</v>
-      </c>
-      <c r="M39">
-        <v>172</v>
-      </c>
-      <c r="N39">
-        <v>20</v>
-      </c>
       <c r="O39">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -9808,10 +9808,10 @@
         <v>61</v>
       </c>
       <c r="B41">
-        <v>1408</v>
+        <v>1381</v>
       </c>
       <c r="C41">
-        <v>1393</v>
+        <v>1366</v>
       </c>
       <c r="D41">
         <v>15</v>
@@ -9829,7 +9829,7 @@
         <v>15</v>
       </c>
       <c r="I41">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="J41">
         <v>206</v>
@@ -14218,13 +14218,13 @@
         <v>248</v>
       </c>
       <c r="B2">
-        <v>817859</v>
+        <v>818192</v>
       </c>
       <c r="C2">
         <v>100831</v>
       </c>
       <c r="D2">
-        <v>717028</v>
+        <v>717361</v>
       </c>
       <c r="E2">
         <v>144738</v>
@@ -14233,10 +14233,10 @@
         <v>101562</v>
       </c>
       <c r="G2">
-        <v>138303</v>
+        <v>138311</v>
       </c>
       <c r="H2">
-        <v>332425</v>
+        <v>332750</v>
       </c>
       <c r="I2">
         <v>46457</v>
@@ -14268,31 +14268,31 @@
         <v>53</v>
       </c>
       <c r="B3">
-        <v>633117</v>
+        <v>633123</v>
       </c>
       <c r="C3">
-        <v>262990</v>
+        <v>262976</v>
       </c>
       <c r="D3">
-        <v>370127</v>
+        <v>370147</v>
       </c>
       <c r="E3">
-        <v>93737</v>
+        <v>93986</v>
       </c>
       <c r="F3">
-        <v>105672</v>
+        <v>105252</v>
       </c>
       <c r="G3">
-        <v>84484</v>
+        <v>84653</v>
       </c>
       <c r="H3">
-        <v>86234</v>
+        <v>86256</v>
       </c>
       <c r="I3">
-        <v>41171</v>
+        <v>41144</v>
       </c>
       <c r="J3">
-        <v>93621</v>
+        <v>93624</v>
       </c>
       <c r="K3">
         <v>62129</v>
@@ -14301,13 +14301,13 @@
         <v>7750</v>
       </c>
       <c r="M3">
-        <v>9132</v>
+        <v>9137</v>
       </c>
       <c r="N3">
         <v>6791</v>
       </c>
       <c r="O3">
-        <v>41229</v>
+        <v>41234</v>
       </c>
       <c r="P3">
         <v>1167</v>
@@ -14318,25 +14318,25 @@
         <v>249</v>
       </c>
       <c r="B4">
-        <v>89813</v>
+        <v>136248</v>
       </c>
       <c r="C4">
         <v>62</v>
       </c>
       <c r="D4">
-        <v>89751</v>
+        <v>136186</v>
       </c>
       <c r="E4">
-        <v>5654</v>
+        <v>8410</v>
       </c>
       <c r="F4">
-        <v>75120</v>
+        <v>114211</v>
       </c>
       <c r="G4">
-        <v>953</v>
+        <v>1436</v>
       </c>
       <c r="H4">
-        <v>8024</v>
+        <v>12129</v>
       </c>
       <c r="I4">
         <v>62</v>
@@ -14568,13 +14568,13 @@
         <v>254</v>
       </c>
       <c r="B9">
-        <v>12318</v>
+        <v>12330</v>
       </c>
       <c r="C9">
         <v>207</v>
       </c>
       <c r="D9">
-        <v>12111</v>
+        <v>12123</v>
       </c>
       <c r="E9">
         <v>2464</v>
@@ -14586,7 +14586,7 @@
         <v>894</v>
       </c>
       <c r="H9">
-        <v>8006</v>
+        <v>8018</v>
       </c>
       <c r="I9">
         <v>188</v>
